--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.861854666666666</v>
+        <v>3.324593</v>
       </c>
       <c r="H2">
-        <v>8.585564</v>
+        <v>9.973779</v>
       </c>
       <c r="I2">
-        <v>0.05512076040054963</v>
+        <v>0.06006369988653708</v>
       </c>
       <c r="J2">
-        <v>0.05512076040054963</v>
+        <v>0.06006369988653707</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N2">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O2">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P2">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q2">
-        <v>20.74497108781645</v>
+        <v>10.982018345331</v>
       </c>
       <c r="R2">
-        <v>186.704739790348</v>
+        <v>98.83816510797902</v>
       </c>
       <c r="S2">
-        <v>0.004349785586217816</v>
+        <v>0.002019679856245621</v>
       </c>
       <c r="T2">
-        <v>0.004349785586217816</v>
+        <v>0.00201967985624562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.861854666666666</v>
+        <v>3.324593</v>
       </c>
       <c r="H3">
-        <v>8.585564</v>
+        <v>9.973779</v>
       </c>
       <c r="I3">
-        <v>0.05512076040054963</v>
+        <v>0.06006369988653708</v>
       </c>
       <c r="J3">
-        <v>0.05512076040054963</v>
+        <v>0.06006369988653707</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N3">
         <v>113.480522</v>
       </c>
       <c r="O3">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P3">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q3">
-        <v>108.2549204871564</v>
+        <v>125.7588496925153</v>
       </c>
       <c r="R3">
-        <v>974.2942843844079</v>
+        <v>1131.829647232638</v>
       </c>
       <c r="S3">
-        <v>0.0226987876135793</v>
+        <v>0.02312804508986991</v>
       </c>
       <c r="T3">
-        <v>0.02269878761357931</v>
+        <v>0.02312804508986991</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.861854666666666</v>
+        <v>3.324593</v>
       </c>
       <c r="H4">
-        <v>8.585564</v>
+        <v>9.973779</v>
       </c>
       <c r="I4">
-        <v>0.05512076040054963</v>
+        <v>0.06006369988653708</v>
       </c>
       <c r="J4">
-        <v>0.05512076040054963</v>
+        <v>0.06006369988653707</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N4">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O4">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P4">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q4">
-        <v>24.53230948771778</v>
+        <v>30.418017895828</v>
       </c>
       <c r="R4">
-        <v>220.79078538946</v>
+        <v>273.762161062452</v>
       </c>
       <c r="S4">
-        <v>0.005143911059436494</v>
+        <v>0.005594113584525336</v>
       </c>
       <c r="T4">
-        <v>0.005143911059436494</v>
+        <v>0.005594113584525335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.861854666666666</v>
+        <v>3.324593</v>
       </c>
       <c r="H5">
-        <v>8.585564</v>
+        <v>9.973779</v>
       </c>
       <c r="I5">
-        <v>0.05512076040054963</v>
+        <v>0.06006369988653708</v>
       </c>
       <c r="J5">
-        <v>0.05512076040054963</v>
+        <v>0.06006369988653707</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N5">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O5">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P5">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q5">
-        <v>109.3493957845062</v>
+        <v>159.4377536290797</v>
       </c>
       <c r="R5">
-        <v>984.144562060556</v>
+        <v>1434.939782661717</v>
       </c>
       <c r="S5">
-        <v>0.02292827614131601</v>
+        <v>0.0293218613558962</v>
       </c>
       <c r="T5">
-        <v>0.02292827614131601</v>
+        <v>0.0293218613558962</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>57.293676</v>
       </c>
       <c r="I6">
-        <v>0.3678350062107418</v>
+        <v>0.3450317237488911</v>
       </c>
       <c r="J6">
-        <v>0.3678350062107417</v>
+        <v>0.3450317237488911</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N6">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O6">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P6">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q6">
-        <v>138.436525793148</v>
+        <v>63.085436413164</v>
       </c>
       <c r="R6">
-        <v>1245.928732138332</v>
+        <v>567.7689277184761</v>
       </c>
       <c r="S6">
-        <v>0.02902723758698132</v>
+        <v>0.01160190969816587</v>
       </c>
       <c r="T6">
-        <v>0.02902723758698131</v>
+        <v>0.01160190969816587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>57.293676</v>
       </c>
       <c r="I7">
-        <v>0.3678350062107418</v>
+        <v>0.3450317237488911</v>
       </c>
       <c r="J7">
-        <v>0.3678350062107417</v>
+        <v>0.3450317237488911</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N7">
         <v>113.480522</v>
       </c>
       <c r="O7">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P7">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q7">
         <v>722.4129177532079</v>
@@ -883,10 +883,10 @@
         <v>6501.716259778872</v>
       </c>
       <c r="S7">
-        <v>0.1514748458138832</v>
+        <v>0.1328574376765715</v>
       </c>
       <c r="T7">
-        <v>0.1514748458138832</v>
+        <v>0.1328574376765715</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>57.293676</v>
       </c>
       <c r="I8">
-        <v>0.3678350062107418</v>
+        <v>0.3450317237488911</v>
       </c>
       <c r="J8">
-        <v>0.3678350062107417</v>
+        <v>0.3450317237488911</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N8">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O8">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P8">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q8">
-        <v>163.71040869546</v>
+        <v>174.734176673232</v>
       </c>
       <c r="R8">
-        <v>1473.39367825914</v>
+        <v>1572.607590059088</v>
       </c>
       <c r="S8">
-        <v>0.0343266410467817</v>
+        <v>0.03213499429042824</v>
       </c>
       <c r="T8">
-        <v>0.03432664104678169</v>
+        <v>0.03213499429042824</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>57.293676</v>
       </c>
       <c r="I9">
-        <v>0.3678350062107418</v>
+        <v>0.3450317237488911</v>
       </c>
       <c r="J9">
-        <v>0.3678350062107417</v>
+        <v>0.3450317237488911</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N9">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O9">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P9">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q9">
-        <v>729.7166328121561</v>
+        <v>915.8790262539719</v>
       </c>
       <c r="R9">
-        <v>6567.449695309405</v>
+        <v>8242.911236285747</v>
       </c>
       <c r="S9">
-        <v>0.1530062817630956</v>
+        <v>0.1684373820837255</v>
       </c>
       <c r="T9">
-        <v>0.1530062817630956</v>
+        <v>0.1684373820837255</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.81579633333334</v>
+        <v>32.86291466666667</v>
       </c>
       <c r="H10">
-        <v>89.44738900000002</v>
+        <v>98.58874400000001</v>
       </c>
       <c r="I10">
-        <v>0.5742672348052801</v>
+        <v>0.5937172592060275</v>
       </c>
       <c r="J10">
-        <v>0.57426723480528</v>
+        <v>0.5937172592060274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N10">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O10">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P10">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q10">
-        <v>216.1283171013193</v>
+        <v>108.554981542216</v>
       </c>
       <c r="R10">
-        <v>1945.154853911874</v>
+        <v>976.9948338799442</v>
       </c>
       <c r="S10">
-        <v>0.0453175776683999</v>
+        <v>0.01996411794459816</v>
       </c>
       <c r="T10">
-        <v>0.04531757766839989</v>
+        <v>0.01996411794459816</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.81579633333334</v>
+        <v>32.86291466666667</v>
       </c>
       <c r="H11">
-        <v>89.44738900000002</v>
+        <v>98.58874400000001</v>
       </c>
       <c r="I11">
-        <v>0.5742672348052801</v>
+        <v>0.5937172592060275</v>
       </c>
       <c r="J11">
-        <v>0.57426723480528</v>
+        <v>0.5937172592060274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N11">
         <v>113.480522</v>
       </c>
       <c r="O11">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P11">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q11">
-        <v>1127.837377250784</v>
+        <v>1243.100236938263</v>
       </c>
       <c r="R11">
-        <v>10150.53639525706</v>
+        <v>11187.90213244437</v>
       </c>
       <c r="S11">
-        <v>0.236483856564369</v>
+        <v>0.2286159455293367</v>
       </c>
       <c r="T11">
-        <v>0.236483856564369</v>
+        <v>0.2286159455293366</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.81579633333334</v>
+        <v>32.86291466666667</v>
       </c>
       <c r="H12">
-        <v>89.44738900000002</v>
+        <v>98.58874400000001</v>
       </c>
       <c r="I12">
-        <v>0.5742672348052801</v>
+        <v>0.5937172592060275</v>
       </c>
       <c r="J12">
-        <v>0.57426723480528</v>
+        <v>0.5937172592060274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N12">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O12">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P12">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q12">
-        <v>255.5861245477039</v>
+        <v>300.6758199995413</v>
       </c>
       <c r="R12">
-        <v>2300.275120929335</v>
+        <v>2706.082379995872</v>
       </c>
       <c r="S12">
-        <v>0.05359105278521229</v>
+        <v>0.05529665657236747</v>
       </c>
       <c r="T12">
-        <v>0.05359105278521228</v>
+        <v>0.05529665657236746</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.81579633333334</v>
+        <v>32.86291466666667</v>
       </c>
       <c r="H13">
-        <v>89.44738900000002</v>
+        <v>98.58874400000001</v>
       </c>
       <c r="I13">
-        <v>0.5742672348052801</v>
+        <v>0.5937172592060275</v>
       </c>
       <c r="J13">
-        <v>0.57426723480528</v>
+        <v>0.5937172592060274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N13">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O13">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P13">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q13">
-        <v>1139.24000119872</v>
+        <v>1576.009241479323</v>
       </c>
       <c r="R13">
-        <v>10253.16001078848</v>
+        <v>14184.08317331391</v>
       </c>
       <c r="S13">
-        <v>0.2388747477872989</v>
+        <v>0.2898405391597251</v>
       </c>
       <c r="T13">
-        <v>0.2388747477872988</v>
+        <v>0.2898405391597251</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.144181</v>
+        <v>0.06571933333333334</v>
       </c>
       <c r="H14">
-        <v>0.432543</v>
+        <v>0.197158</v>
       </c>
       <c r="I14">
-        <v>0.002776998583428524</v>
+        <v>0.001187317158544407</v>
       </c>
       <c r="J14">
-        <v>0.002776998583428524</v>
+        <v>0.001187317158544407</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N14">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O14">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P14">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q14">
-        <v>1.045137166205667</v>
+        <v>0.217088505062</v>
       </c>
       <c r="R14">
-        <v>9.406234495851001</v>
+        <v>1.953796545558</v>
       </c>
       <c r="S14">
-        <v>0.0002191433558493551</v>
+        <v>3.992428958950004E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002191433558493551</v>
+        <v>3.992428958950003E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.144181</v>
+        <v>0.06571933333333334</v>
       </c>
       <c r="H15">
-        <v>0.432543</v>
+        <v>0.197158</v>
       </c>
       <c r="I15">
-        <v>0.002776998583428524</v>
+        <v>0.001187317158544407</v>
       </c>
       <c r="J15">
-        <v>0.002776998583428524</v>
+        <v>0.001187317158544407</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N15">
         <v>113.480522</v>
       </c>
       <c r="O15">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P15">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q15">
-        <v>5.453911714160665</v>
+        <v>2.485954750719556</v>
       </c>
       <c r="R15">
-        <v>49.08520542744599</v>
+        <v>22.373592756476</v>
       </c>
       <c r="S15">
-        <v>0.001143570962925724</v>
+        <v>0.0004571867006305807</v>
       </c>
       <c r="T15">
-        <v>0.001143570962925724</v>
+        <v>0.0004571867006305806</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.144181</v>
+        <v>0.06571933333333334</v>
       </c>
       <c r="H16">
-        <v>0.432543</v>
+        <v>0.197158</v>
       </c>
       <c r="I16">
-        <v>0.002776998583428524</v>
+        <v>0.001187317158544407</v>
       </c>
       <c r="J16">
-        <v>0.002776998583428524</v>
+        <v>0.001187317158544407</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N16">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O16">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P16">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q16">
-        <v>1.235944283071666</v>
+        <v>0.6012922055226667</v>
       </c>
       <c r="R16">
-        <v>11.123498547645</v>
+        <v>5.411629849704</v>
       </c>
       <c r="S16">
-        <v>0.000259151608605077</v>
+        <v>0.0001105823826753978</v>
       </c>
       <c r="T16">
-        <v>0.000259151608605077</v>
+        <v>0.0001105823826753977</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.144181</v>
+        <v>0.06571933333333334</v>
       </c>
       <c r="H17">
-        <v>0.432543</v>
+        <v>0.197158</v>
       </c>
       <c r="I17">
-        <v>0.002776998583428524</v>
+        <v>0.001187317158544407</v>
       </c>
       <c r="J17">
-        <v>0.002776998583428524</v>
+        <v>0.001187317158544407</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N17">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O17">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P17">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q17">
-        <v>5.509051671016333</v>
+        <v>3.151706953803778</v>
       </c>
       <c r="R17">
-        <v>49.581465039147</v>
+        <v>28.365362584234</v>
       </c>
       <c r="S17">
-        <v>0.001155132656048368</v>
+        <v>0.0005796237856489284</v>
       </c>
       <c r="T17">
-        <v>0.001155132656048368</v>
+        <v>0.0005796237856489283</v>
       </c>
     </row>
   </sheetData>
